--- a/xlslist/p_hit_class.xlsx
+++ b/xlslist/p_hit_class.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -457,7 +457,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>78.58714678669668</v>
+        <v>74.49464747139166</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="D3" t="n">
-        <v>28.89880952380952</v>
+        <v>40.54316170912809</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>36.36539539432102</v>
+        <v>40.17906336088154</v>
       </c>
     </row>
     <row r="5">
@@ -505,7 +505,7 @@
         <v>2.564102564102563</v>
       </c>
       <c r="D5" t="n">
-        <v>32.93976951511198</v>
+        <v>38.0844320570348</v>
       </c>
     </row>
     <row r="6">
@@ -521,10 +521,10 @@
         <v>1.030927835051547</v>
       </c>
       <c r="D6" t="n">
-        <v>12.23004694835681</v>
+        <v>11.3980177360459</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>